--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_8.xlsx
@@ -518,1101 +518,1101 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_24</t>
+          <t>model_24_8_12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9852429667602791</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7863554876430645</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9563393672479131</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9468806714075705</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9589937920095736</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09868034922390345</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H2" t="n">
-        <v>1.428641837873352</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2033281349811299</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4124989436015242</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3079135392913271</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5265933496219084</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3141342853365475</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N2" t="n">
-        <v>1.006213487679883</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3275076322109407</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P2" t="n">
-        <v>166.6317388967481</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q2" t="n">
-        <v>265.3606807110723</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_23</t>
+          <t>model_24_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9853983078312994</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7863344601861535</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9568820384635143</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9474192085704255</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9594405419484782</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09764158276671067</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H3" t="n">
-        <v>1.428782448574538</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2008009080670664</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4083169251789591</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3045589166230128</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5284454227074308</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3124765315455077</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N3" t="n">
-        <v>1.006148080913137</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3257793044089929</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P3" t="n">
-        <v>166.6529036467205</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q3" t="n">
-        <v>265.3818454610447</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_22</t>
+          <t>model_24_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9855692074429506</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7863093692816171</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9574803117529168</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9480146624335385</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9599339646666184</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09649877627667892</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H4" t="n">
-        <v>1.428950231568706</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I4" t="n">
-        <v>0.198014741571634</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4036929192661172</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3008538304188756</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5305062198767968</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3106425216815607</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N4" t="n">
-        <v>1.006076123181916</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3238672169482139</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P4" t="n">
-        <v>166.6764499035766</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q4" t="n">
-        <v>265.4053917179008</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_21</t>
+          <t>model_24_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9857570614997184</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7862793962057281</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9581391954143154</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9486731509247093</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9604787767073241</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09524259533408444</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H5" t="n">
-        <v>1.429150661665189</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1949463117849564</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3985794170028296</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K5" t="n">
-        <v>0.296762864393893</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5327973393316795</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3086139908268652</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005997026736961</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3217523273353962</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P5" t="n">
-        <v>166.7026560145438</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q5" t="n">
-        <v>265.431597828868</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_20</t>
+          <t>model_24_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9859632567574413</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.786243442460665</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9588644238625909</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9494004912865068</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9610797643013831</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09386376669624914</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H6" t="n">
-        <v>1.429391084523978</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1915689134622974</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3929312445045987</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K6" t="n">
-        <v>0.292250078983448</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5353428954041177</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3063719417574807</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005910207681077</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3194148295954466</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P6" t="n">
-        <v>166.7318216768296</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q6" t="n">
-        <v>265.4607634911538</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_19</t>
+          <t>model_24_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9861891840194077</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7862003118382532</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9596611465861339</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9502035096015878</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9617420539503932</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0923529900551812</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H7" t="n">
-        <v>1.429679499194644</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1878585653692011</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3866953937240825</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2872769795466418</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5381695721291144</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3038963475515644</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N7" t="n">
-        <v>1.005815080412881</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O7" t="n">
-        <v>0.316833844218998</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P7" t="n">
-        <v>166.7642743908724</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q7" t="n">
-        <v>265.4932162051967</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_18</t>
+          <t>model_24_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9864362905274991</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7861484168845032</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9605355681863135</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9510890616070229</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9624711146776841</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09070058769775274</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H8" t="n">
-        <v>1.430026520989325</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1837863725963368</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3798186263321429</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2818024994642399</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5413137713808623</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3011653826351109</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N8" t="n">
-        <v>1.005711035567369</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3139866164721743</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P8" t="n">
-        <v>166.8003828846074</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q8" t="n">
-        <v>265.5293246989317</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_17</t>
+          <t>model_24_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.986706076718761</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.786085832840355</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9614938878691316</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9520651809721468</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9632730229234115</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08889652619453335</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H9" t="n">
-        <v>1.430445020780716</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1793234653606692</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3722385567489597</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2757810110548145</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5448082736546891</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2981552048758052</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N9" t="n">
-        <v>1.005597441381574</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O9" t="n">
-        <v>0.310848289213728</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P9" t="n">
-        <v>166.8405644253056</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q9" t="n">
-        <v>265.5695062396298</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_16</t>
+          <t>model_24_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9869998979676687</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7860102588363903</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9625423954260106</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9531397619103362</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9641538111076017</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08693174215016514</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H10" t="n">
-        <v>1.430950384493215</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1744405520216807</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3638938823420496</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2691672171818651</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5486981626023345</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2948418934788019</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N10" t="n">
-        <v>1.005473727171508</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3073939232910541</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P10" t="n">
-        <v>166.8852640825052</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q10" t="n">
-        <v>265.6142058968295</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_15</t>
+          <t>model_24_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9873190135051394</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7859188701087073</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9636872454296308</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9543212077504007</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9651197329747251</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08479781508170671</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H11" t="n">
-        <v>1.431561501336037</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1691089706542966</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3547193469353935</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K11" t="n">
-        <v>0.261914158794845</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5530218451137834</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2912006440269436</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N11" t="n">
-        <v>1.005339362734678</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3035976583116047</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P11" t="n">
-        <v>166.9349710041243</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q11" t="n">
-        <v>265.6639128184485</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_14</t>
+          <t>model_24_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9876644606479241</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.785808141962238</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9649346852464933</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9556181609427773</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9661771912623269</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08248780844726709</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H12" t="n">
-        <v>1.432301940961334</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1632996271914096</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3446478374503854</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2539737580617545</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5578330866660335</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2872069087735654</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N12" t="n">
-        <v>1.005193911306137</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2994339014803185</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P12" t="n">
-        <v>166.9902095459165</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q12" t="n">
-        <v>265.7191513602408</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_13</t>
+          <t>model_24_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.98803704463611</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7856738716365048</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9662903668569237</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9570398113011518</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9673327041905593</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07999633760267723</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H13" t="n">
-        <v>1.433199807247769</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1569862002870809</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3336079902508893</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2452970699975481</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5631868731185187</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2828362381355636</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N13" t="n">
-        <v>1.005037033837427</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2948771623447215</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P13" t="n">
-        <v>167.0515488506454</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q13" t="n">
-        <v>265.7804906649697</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_12</t>
+          <t>model_24_8_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9884371428290339</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7855107854891072</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9677597138976602</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9585950938000769</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9685925533673804</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07732087914431168</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H14" t="n">
-        <v>1.43429036506636</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1501434319944312</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3215304206578887</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2358369263261599</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5691482877140297</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2780663214852019</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N14" t="n">
-        <v>1.004868571440407</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2899041804674653</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P14" t="n">
-        <v>167.1195825090017</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q14" t="n">
-        <v>265.8485243233259</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_11</t>
+          <t>model_24_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9888644759442113</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7853125545862711</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9693466292269221</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9602927527595216</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9699624841318317</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07446330063543206</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H15" t="n">
-        <v>1.435615936026394</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1427531466519371</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3083472245233949</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K15" t="n">
-        <v>0.225550185587666</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L15" t="n">
-        <v>0.575779976685205</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2728796449635481</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004688641707701</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2844966963883842</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P15" t="n">
-        <v>167.1948977677773</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q15" t="n">
-        <v>265.9238395821015</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_10</t>
+          <t>model_24_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9893180472433486</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7850712656194007</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9710545230271338</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E16" t="n">
-        <v>0.962140928358862</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9714477566343902</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07143026726959743</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H16" t="n">
-        <v>1.437229436458891</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1347994629956621</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2939951891622653</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2143973495785024</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5831706593532786</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2672644145216445</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00449766431859</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2786424139614392</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P16" t="n">
-        <v>167.2780671762455</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q16" t="n">
-        <v>266.0070089905697</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_9</t>
+          <t>model_24_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.989795721104603</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7847773870438569</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9728842699175591</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9641467086396588</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9730523165937458</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06823605995990384</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H17" t="n">
-        <v>1.439194603846738</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1262783079123128</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2784192722813549</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2023487900968338</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5914062657889001</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2612203283818161</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004296538482272</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2723410185616552</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P17" t="n">
-        <v>167.3695642309012</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q17" t="n">
-        <v>266.0985060452255</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_8</t>
+          <t>model_24_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9902939483050401</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7844191481478506</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9748343828070163</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9663154946670334</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9747784862823218</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06490441237645526</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H18" t="n">
-        <v>1.44159014899387</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1171966068048767</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2615775318283843</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1893870693166305</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6005944333849588</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2547634439562617</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004086758608404</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2656092511985115</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P18" t="n">
-        <v>167.4696793405451</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q18" t="n">
-        <v>266.1986211548694</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_7</t>
+          <t>model_24_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9908074102997221</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7839822504425049</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D19" t="n">
-        <v>0.976900728368849</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9686502681939713</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F19" t="n">
-        <v>0.976626528912082</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06147088965374176</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H19" t="n">
-        <v>1.444511685961246</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1075736086293885</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2434468129557825</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1755102107925856</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6108413113396292</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2479332362829594</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003870564084328</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2584882674440777</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P19" t="n">
-        <v>167.5783831103869</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q19" t="n">
-        <v>266.3073249247112</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_6</t>
+          <t>model_24_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9913283315362302</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7834491717984804</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D20" t="n">
-        <v>0.979074328951688</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9711505192219803</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9785933968236254</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05798748694658988</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H20" t="n">
-        <v>1.448076385308439</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09745112242512224</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2240310760644979</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K20" t="n">
-        <v>0.16074109924481</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L20" t="n">
-        <v>0.622286586846111</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2408059113613905</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00365122882685</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2510575175450012</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P20" t="n">
-        <v>167.6950560680232</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q20" t="n">
-        <v>266.4239978823475</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_5</t>
+          <t>model_24_8_11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9918459558449072</v>
+        <v>0.9975428453585753</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7827984628351986</v>
+        <v>0.785772930992769</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9813416745180309</v>
+        <v>0.9934046755980291</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9738108412045161</v>
+        <v>0.9916913708572047</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9806721049492824</v>
+        <v>0.9944074960563916</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0545261308110262</v>
+        <v>0.01643100440136388</v>
       </c>
       <c r="H21" t="n">
-        <v>1.452427679142144</v>
+        <v>1.432537396876304</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08689206461256194</v>
+        <v>0.02074866737370331</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2033723057728802</v>
+        <v>0.08194511011304424</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1451321851927211</v>
+        <v>0.05134688874337377</v>
       </c>
       <c r="L21" t="n">
-        <v>0.635077521479859</v>
+        <v>0.07758583549158764</v>
       </c>
       <c r="M21" t="n">
-        <v>0.233508309939981</v>
+        <v>0.128183479440074</v>
       </c>
       <c r="N21" t="n">
-        <v>1.003433281749513</v>
+        <v>1.001034591427968</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2434492421229646</v>
+        <v>0.1336405155362206</v>
       </c>
       <c r="P21" t="n">
-        <v>167.8181504555936</v>
+        <v>170.2171704332859</v>
       </c>
       <c r="Q21" t="n">
-        <v>266.5470922699178</v>
+        <v>268.9461122476102</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9923456940822942</v>
+        <v>0.9975428473748675</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7820040224723914</v>
+        <v>0.7857729175136686</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9836824796036036</v>
+        <v>0.9934046647050565</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9766193988267339</v>
+        <v>0.9916913828766396</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9828502429652323</v>
+        <v>0.9944075006458212</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05118437891653647</v>
+        <v>0.01643099091840843</v>
       </c>
       <c r="H22" t="n">
-        <v>1.457740105506297</v>
+        <v>1.432537487011111</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07599090486285383</v>
+        <v>0.02074870164262655</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1815624093960281</v>
+        <v>0.08194499156955189</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1287766571294409</v>
+        <v>0.05134684660608922</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6493979391294795</v>
+        <v>0.07758528386540686</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2262396493025404</v>
+        <v>0.1281834268476562</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00322286564956</v>
+        <v>1.001034590579003</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2358711395539865</v>
+        <v>0.1336404607048347</v>
       </c>
       <c r="P22" t="n">
-        <v>167.9446417855507</v>
+        <v>170.2171720744468</v>
       </c>
       <c r="Q22" t="n">
-        <v>266.6735835998749</v>
+        <v>268.9461138887711</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9928079608167477</v>
+        <v>0.997542859362785</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7810341206103677</v>
+        <v>0.7857727230822509</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9860687448515651</v>
+        <v>0.9934048664369842</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9795549347467107</v>
+        <v>0.991691369338999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9851081365094019</v>
+        <v>0.9944075279361054</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0480931991347033</v>
+        <v>0.01643091075514931</v>
       </c>
       <c r="H23" t="n">
-        <v>1.464225843723637</v>
+        <v>1.432538787174897</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06487803654522477</v>
+        <v>0.02074806700080867</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1587664611417545</v>
+        <v>0.08194512508657661</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1118222488434896</v>
+        <v>0.05134659604369265</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6654353245617516</v>
+        <v>0.07758431675712574</v>
       </c>
       <c r="M23" t="n">
-        <v>0.219301616808229</v>
+        <v>0.1281831141576351</v>
       </c>
       <c r="N23" t="n">
-        <v>1.003028227024527</v>
+        <v>1.001034585531459</v>
       </c>
       <c r="O23" t="n">
-        <v>0.228637740652685</v>
+        <v>0.133640134702952</v>
       </c>
       <c r="P23" t="n">
-        <v>168.0692290039957</v>
+        <v>170.2171818320391</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.7981708183199</v>
+        <v>268.9461236463633</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9932072085125278</v>
+        <v>0.9975428605428074</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7798499771440538</v>
+        <v>0.7857726972025271</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9884630544542634</v>
+        <v>0.9934049631051901</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9825856938819623</v>
+        <v>0.9916913435076667</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9874177629881696</v>
+        <v>0.9944075306235828</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04542342795465573</v>
+        <v>0.01643090286433373</v>
       </c>
       <c r="H24" t="n">
-        <v>1.472144216535358</v>
+        <v>1.432538960232729</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05372770556288756</v>
+        <v>0.02074776288590437</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1352310555797931</v>
+        <v>0.08194537985199421</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0944793805713403</v>
+        <v>0.05134657136894929</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6834374831387973</v>
+        <v>0.0775859321066818</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2131277268556481</v>
+        <v>0.1281830833781655</v>
       </c>
       <c r="N24" t="n">
-        <v>1.002860122731567</v>
+        <v>1.001034585034607</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2222010154231087</v>
+        <v>0.1336401026131367</v>
       </c>
       <c r="P24" t="n">
-        <v>168.1834545455824</v>
+        <v>170.2171827925236</v>
       </c>
       <c r="Q24" t="n">
-        <v>266.9123963599066</v>
+        <v>268.9461246068478</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9935103535002976</v>
+        <v>0.9975428724429261</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7784047101215978</v>
+        <v>0.7857726031042453</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9908173591202941</v>
+        <v>0.9934050687493869</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9856648175557517</v>
+        <v>0.991691360255277</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9897399925642694</v>
+        <v>0.9944075577180419</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04339629602558442</v>
+        <v>0.01643082328818527</v>
       </c>
       <c r="H25" t="n">
-        <v>1.481808723769364</v>
+        <v>1.432539589468372</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04276367809128562</v>
+        <v>0.02074743053283653</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1113200744677764</v>
+        <v>0.08194521467615708</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07704187627953103</v>
+        <v>0.05134632260449681</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7036704282549632</v>
+        <v>0.07758725527462004</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2083177765472367</v>
+        <v>0.1281827729774375</v>
       </c>
       <c r="N25" t="n">
-        <v>1.002732482736717</v>
+        <v>1.001034580024031</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2171862955720984</v>
+        <v>0.1336397789980071</v>
       </c>
       <c r="P25" t="n">
-        <v>168.274762373101</v>
+        <v>170.2171924787035</v>
       </c>
       <c r="Q25" t="n">
-        <v>267.0037041874252</v>
+        <v>268.9461342930278</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9936750173480178</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7766413958850407</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9930705705749673</v>
+        <v>0.9999790226949143</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9887269801570645</v>
+        <v>0.9884896496756239</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9920221030880887</v>
+        <v>0.9938141871766216</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04229518811767217</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H26" t="n">
-        <v>1.493600014188537</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03227044302073083</v>
+        <v>6.5993891898635e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08754080481869315</v>
+        <v>0.1135225689533403</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05990562391971199</v>
+        <v>0.05679428142242976</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7264515603819504</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M26" t="n">
-        <v>0.205657939593083</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N26" t="n">
-        <v>1.002663150590308</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2144132238521849</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P26" t="n">
-        <v>168.326163910968</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q26" t="n">
-        <v>267.0551057252923</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
   </sheetData>
